--- a/biology/Médecine/Franz_Chvostek_junior/Franz_Chvostek_junior.xlsx
+++ b/biology/Médecine/Franz_Chvostek_junior/Franz_Chvostek_junior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Franz Chvostek junior est un médecin interniste autrichien né le 3 octobre 1864 à Vienne et mort le 17 avril 1944 à Obervellach en Carinthie, Autriche. Ses travaux ont servi à poser les fondements modernes de la biologie et la pathologie héréditaires. Il est connu pour son antisémitisme et son opposition à la formation universitaire des femmes.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franz Chvostek junior naît à Vienne le 3 octobre 1864[1]. Fils du médecin autrichien Franz Chvostek, il complète une formation en médecine à l'université de Vienne[2].
-Il a posé les fondements modernes de la biologie et la pathologie héréditaires[3]. L'« anémie de Chvostek », d'origine pancréatique, est nommé en son honneur[1].
-Connu pour son antisémitisme, il s'est aussi opposé à l'entrée des femmes dans les universités[4].
-Il meurt à Obervellach en Carinthie, Autriche, le 17 avril 1944[1].
-Il a été l'un des professeurs d'Hans Asperger[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franz Chvostek junior naît à Vienne le 3 octobre 1864. Fils du médecin autrichien Franz Chvostek, il complète une formation en médecine à l'université de Vienne.
+Il a posé les fondements modernes de la biologie et la pathologie héréditaires. L'« anémie de Chvostek », d'origine pancréatique, est nommé en son honneur.
+Connu pour son antisémitisme, il s'est aussi opposé à l'entrée des femmes dans les universités.
+Il meurt à Obervellach en Carinthie, Autriche, le 17 avril 1944.
+Il a été l'un des professeurs d'Hans Asperger.
 </t>
         </is>
       </c>
